--- a/uploads/companies-nahodka.xlsx
+++ b/uploads/companies-nahodka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Анютка\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2B9094-C907-44B5-9721-78C03F3CFE22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FDAB7A-7D08-48B7-9D80-643CE64D9A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Ссылка на 2ГИС</t>
   </si>
   <si>
-    <t>Находка</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>ЧУходка</t>
+  </si>
+  <si>
+    <t>Пеходка</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,70 +587,70 @@
     </row>
     <row r="2" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>396973</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>31</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35"/>
@@ -665,7 +665,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:V1 A2 C2:V2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:V1 C2:V2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/uploads/companies-nahodka.xlsx
+++ b/uploads/companies-nahodka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Анютка\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FDAB7A-7D08-48B7-9D80-643CE64D9A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC554FA-F83C-4D36-BD4E-E44D676E3BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Сеть</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Пеходка</t>
+  </si>
+  <si>
+    <t>10:00-00:00</t>
   </si>
 </sst>
 </file>
@@ -504,20 +507,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="10.1640625" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -626,7 +629,7 @@
         <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -653,19 +656,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:22" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:22" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:22" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:22" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:22" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:22" ht="15.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:V1 C2:V2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:V1 C2:M2 O2:V2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/uploads/companies-nahodka.xlsx
+++ b/uploads/companies-nahodka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Анютка\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC554FA-F83C-4D36-BD4E-E44D676E3BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C6E6B7-12AC-414B-A068-8F8998EBCE99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Сеть</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>10:00-00:00</t>
+  </si>
+  <si>
+    <t>10:00-21:00</t>
+  </si>
+  <si>
+    <t>11:00-21:00</t>
+  </si>
+  <si>
+    <t>09:00-21:00</t>
+  </si>
+  <si>
+    <t>12:00-21:00</t>
+  </si>
+  <si>
+    <t>00:00-21:00</t>
   </si>
 </sst>
 </file>
@@ -510,7 +525,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -623,10 +638,10 @@
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
         <v>36</v>
@@ -635,13 +650,13 @@
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
@@ -659,7 +674,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:V1 C2:M2 O2:V2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:V1 C2:K2 O2 S2:V2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>